--- a/use_cases/cdisc_pilot/scheduled_activities/Protocol/ScheduleOfActivities.xlsx
+++ b/use_cases/cdisc_pilot/scheduled_activities/Protocol/ScheduleOfActivities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glow/Documents/Devel/phuse-org/research-on-fhir-scenarios/use_cases/cdisc_pilot/scheduled_activities/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{960D0550-6B88-AC41-AEDA-F91625D4DC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2491D68-E24D-164D-B518-0C88BFA11FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37920" yWindow="-760" windowWidth="28040" windowHeight="17440" xr2:uid="{65F69DED-5D82-A846-919B-82A731E5D4FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="36">
   <si>
     <t>Informed consent</t>
   </si>
@@ -142,6 +142,9 @@
   <si>
     <t>P</t>
   </si>
+  <si>
+    <t>Visit Date</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -361,11 +364,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -411,6 +447,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,13 +477,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -495,13 +538,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -556,13 +599,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -617,13 +660,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -678,13 +721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -739,13 +782,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -800,13 +843,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -861,13 +904,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -922,13 +965,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -983,13 +1026,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1044,13 +1087,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1105,13 +1148,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1166,13 +1209,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1227,13 +1270,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1288,13 +1331,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1349,13 +1392,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1410,13 +1453,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1471,13 +1514,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1532,13 +1575,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1593,13 +1636,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1654,13 +1697,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1715,13 +1758,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1776,13 +1819,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1837,13 +1880,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1898,13 +1941,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1959,13 +2002,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2020,13 +2063,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2081,13 +2124,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2142,13 +2185,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2203,13 +2246,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2264,13 +2307,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2325,13 +2368,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2386,13 +2429,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2447,13 +2490,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2508,13 +2551,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2569,13 +2612,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2630,13 +2673,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2691,13 +2734,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2752,13 +2795,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2813,13 +2856,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2874,13 +2917,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2935,13 +2978,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2996,13 +3039,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3057,13 +3100,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3118,13 +3161,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3179,13 +3222,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3240,13 +3283,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3301,13 +3344,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3362,13 +3405,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3423,13 +3466,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3484,13 +3527,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3545,13 +3588,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3606,13 +3649,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3667,13 +3710,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3728,13 +3771,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3789,13 +3832,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3850,13 +3893,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3911,13 +3954,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3972,13 +4015,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4033,13 +4076,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4094,13 +4137,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4155,13 +4198,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4216,13 +4259,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4277,13 +4320,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4338,13 +4381,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4399,13 +4442,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4460,13 +4503,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4521,13 +4564,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4582,13 +4625,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4643,13 +4686,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4704,13 +4747,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4765,13 +4808,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4826,13 +4869,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4887,13 +4930,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4948,13 +4991,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5009,13 +5052,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5070,13 +5113,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5131,13 +5174,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5192,13 +5235,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5253,13 +5296,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5314,13 +5357,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5375,13 +5418,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5436,13 +5479,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5497,13 +5540,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5558,13 +5601,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5619,13 +5662,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5680,13 +5723,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5741,13 +5784,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5802,13 +5845,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5863,13 +5906,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5924,13 +5967,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5985,13 +6028,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6046,13 +6089,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6107,13 +6150,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6168,13 +6211,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6229,13 +6272,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6290,13 +6333,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6351,13 +6394,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6412,13 +6455,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6473,13 +6516,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6534,13 +6577,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6595,13 +6638,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6656,13 +6699,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6717,13 +6760,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6778,13 +6821,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6839,13 +6882,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6900,13 +6943,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6961,13 +7004,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7022,13 +7065,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7083,13 +7126,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7144,13 +7187,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7205,13 +7248,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7266,13 +7309,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7327,13 +7370,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7388,13 +7431,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7449,13 +7492,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7510,13 +7553,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7571,13 +7614,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7632,13 +7675,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7693,13 +7736,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7754,13 +7797,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7815,13 +7858,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7876,13 +7919,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7937,13 +7980,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7998,13 +8041,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8059,13 +8102,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8120,13 +8163,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8181,13 +8224,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8242,13 +8285,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8303,13 +8346,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8364,13 +8407,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8425,13 +8468,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8486,13 +8529,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8547,13 +8590,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8608,13 +8651,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8669,13 +8712,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8730,13 +8773,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8791,13 +8834,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8852,13 +8895,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8913,13 +8956,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8974,13 +9017,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9035,13 +9078,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9096,13 +9139,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9157,13 +9200,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9218,13 +9261,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9279,13 +9322,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9340,13 +9383,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9401,13 +9444,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9462,13 +9505,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9523,13 +9566,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9584,13 +9627,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9645,13 +9688,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9706,13 +9749,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9767,13 +9810,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9828,13 +9871,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9889,13 +9932,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9950,13 +9993,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10011,13 +10054,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10072,13 +10115,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10133,13 +10176,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10194,13 +10237,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10255,13 +10298,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10316,13 +10359,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10377,13 +10420,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10438,13 +10481,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10499,13 +10542,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10560,13 +10603,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10621,13 +10664,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10682,13 +10725,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10743,13 +10786,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10804,13 +10847,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10865,13 +10908,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10926,13 +10969,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10987,13 +11030,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11048,13 +11091,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11109,13 +11152,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11170,13 +11213,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11231,13 +11274,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11292,13 +11335,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11353,13 +11396,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11414,13 +11457,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11475,13 +11518,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11536,13 +11579,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11597,13 +11640,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11658,13 +11701,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11719,13 +11762,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11780,13 +11823,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11841,13 +11884,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11902,13 +11945,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11963,13 +12006,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12024,13 +12067,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12085,13 +12128,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12146,13 +12189,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12207,13 +12250,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12268,13 +12311,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12329,13 +12372,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12390,13 +12433,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12451,13 +12494,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12512,13 +12555,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12573,13 +12616,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12634,13 +12677,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12695,13 +12738,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12756,13 +12799,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12817,13 +12860,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12878,13 +12921,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12939,13 +12982,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13000,13 +13043,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13061,13 +13104,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13122,13 +13165,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13183,13 +13226,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13244,13 +13287,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13305,13 +13348,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13366,13 +13409,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13427,13 +13470,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13488,13 +13531,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13549,13 +13592,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13610,13 +13653,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13671,13 +13714,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13732,13 +13775,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13793,13 +13836,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13854,13 +13897,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13915,13 +13958,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13976,13 +14019,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14037,13 +14080,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14098,13 +14141,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14159,13 +14202,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14220,13 +14263,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14281,13 +14324,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14342,13 +14385,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14403,13 +14446,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14464,13 +14507,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14525,13 +14568,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14586,13 +14629,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14647,13 +14690,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14708,13 +14751,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14769,13 +14812,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14830,13 +14873,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14891,13 +14934,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14952,13 +14995,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15013,13 +15056,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15074,13 +15117,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15135,13 +15178,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15196,13 +15239,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15257,13 +15300,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15318,13 +15361,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15379,13 +15422,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15440,13 +15483,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15501,13 +15544,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15562,13 +15605,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15623,13 +15666,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15684,13 +15727,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15745,13 +15788,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15806,13 +15849,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15867,13 +15910,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15928,13 +15971,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15989,13 +16032,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16050,13 +16093,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16111,13 +16154,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16172,13 +16215,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16233,13 +16276,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16294,13 +16337,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16355,13 +16398,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16416,13 +16459,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16477,13 +16520,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16538,13 +16581,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16599,13 +16642,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16660,13 +16703,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16721,13 +16764,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16782,13 +16825,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16843,13 +16886,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16904,13 +16947,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16965,13 +17008,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17026,13 +17069,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17087,13 +17130,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17148,13 +17191,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17209,13 +17252,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17270,13 +17313,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17331,13 +17374,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17392,13 +17435,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17453,13 +17496,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17514,13 +17557,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17575,13 +17618,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17636,13 +17679,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17697,13 +17740,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17758,13 +17801,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17819,13 +17862,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17880,13 +17923,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17941,13 +17984,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18002,13 +18045,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18063,13 +18106,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18124,13 +18167,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18185,13 +18228,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18246,13 +18289,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18307,13 +18350,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18368,13 +18411,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18429,13 +18472,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18490,13 +18533,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18551,13 +18594,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18612,13 +18655,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18673,13 +18716,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18734,13 +18777,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18795,13 +18838,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18856,13 +18899,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18917,13 +18960,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18978,13 +19021,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19039,13 +19082,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19100,13 +19143,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19161,13 +19204,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19222,13 +19265,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19283,13 +19326,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19344,13 +19387,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19701,10 +19744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A53C64-D0EF-B141-9B20-B751A2BB0A2C}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -19851,52 +19894,78 @@
       <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="15"/>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
+      <c r="A5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="16"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>33</v>
@@ -19918,7 +19987,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>33</v>
@@ -19940,7 +20009,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>33</v>
@@ -19962,7 +20031,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -19979,12 +20048,16 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="16"/>
+      <c r="O9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>33</v>
@@ -20006,7 +20079,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>33</v>
@@ -20028,14 +20101,14 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -20050,14 +20123,14 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -20072,83 +20145,83 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="16"/>
+      <c r="H15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -20164,71 +20237,71 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -20250,59 +20323,37 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>33</v>
       </c>
@@ -20334,31 +20385,47 @@
       <c r="O21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="16"/>
+      <c r="P21" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="J22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="O22" s="4" t="s">
         <v>33</v>
       </c>
@@ -20366,30 +20433,26 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
         <v>33</v>
@@ -20398,93 +20461,103 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="4"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
+    <row r="26" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>34</v>
@@ -20495,13 +20568,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -20510,7 +20579,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>34</v>
@@ -20536,7 +20605,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>34</v>
@@ -20562,95 +20631,121 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="I31" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="J31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17" t="s">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
